--- a/biology/Zoologie/Icaricia_shasta/Icaricia_shasta.xlsx
+++ b/biology/Zoologie/Icaricia_shasta/Icaricia_shasta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icaricia shasta est une espèce nord-américaine de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Icaricia shasta est présent dans la moitié ouest de l'Amérique du Nord, sur une aire s'étendant de l'Alberta au Dakota du Nord, à la Californie et au Colorado, principalement dans des zones montagneuses.
-L'espèce fréquente notamment les prairies d'altitudes et les pentes rocheuses[1].
+L'espèce fréquente notamment les prairies d'altitudes et les pentes rocheuses.
 </t>
         </is>
       </c>
@@ -569,15 +585,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Icaricia shasta a été décrite en 1862 par l'entomologiste américain William Henry Edwards, sous le nom initial de Lycaena shasta[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Icaricia shasta a été décrite en 1862 par l'entomologiste américain William Henry Edwards, sous le nom initial de Lycaena shasta.
 Synonymes :
 Lycaena shasta Edwards, 1862 — protonyme
 Plebejus shasta (Edwards, 1862)
-Aricia shasta (Edwards, 1862)
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[2] :
+Aricia shasta (Edwards, 1862)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Icaricia_shasta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Icaricia_shasta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Icaricia shasta charlestonensis (Austin, 1980)
 Icaricia shasta calchas (Behr, 1867)
 Icaricia shasta minnehaha (Scudder, 1875)
